--- a/documents/formatomovimientos.xlsx
+++ b/documents/formatomovimientos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alets\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\megatec\tritonbasic\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B84C886-981E-41F0-B52C-5A2334CA86DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{236A41DD-B027-4C20-9742-A80FB64C158A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,10 +49,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -97,18 +96,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -116,10 +115,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -141,13 +140,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35E51405-4ADA-49DE-8E80-D62B439079F6}" name="Tabla2" displayName="Tabla2" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D1048576" xr:uid="{25E437F8-219F-4ADB-ADCF-C7EC9886D64C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FEBCE549-9686-482F-AC64-BBF2607D2BE7}" name="Codigo" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{985AB7C2-84EB-4ADE-99AA-6E20B6486EE8}" name="Nombre del Producto"/>
-    <tableColumn id="3" xr3:uid="{F7946222-36E7-4152-B5B5-AA74271B39E5}" name="Precio" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{089EFA61-E060-469E-B4C6-6182D5BEF008}" name="Cantidad" dataDxfId="0" dataCellStyle="Moneda"/>
+    <tableColumn id="1" name="Codigo" dataDxfId="2"/>
+    <tableColumn id="2" name="Nombre del Producto"/>
+    <tableColumn id="3" name="Precio" dataDxfId="1"/>
+    <tableColumn id="4" name="Cantidad" dataDxfId="0" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -449,26 +448,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867FA7B9-873C-453C-B74C-C803EF65732C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -477,12 +476,12 @@
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
